--- a/extensions/fractionalUpdating-August2016/experiments/Electricity.xlsx
+++ b/extensions/fractionalUpdating-August2016/experiments/Electricity.xlsx
@@ -4,18 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="14" r:id="rId1"/>
-    <sheet name="Chart2" sheetId="15" r:id="rId2"/>
-    <sheet name="Chart3" sheetId="16" r:id="rId3"/>
-    <sheet name="Chart4" sheetId="17" r:id="rId4"/>
-    <sheet name="Chart5" sheetId="18" r:id="rId5"/>
-    <sheet name="SVB-DIFF" sheetId="21" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="Chart6" sheetId="19" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId9"/>
+    <sheet name="Chart2" sheetId="22" r:id="rId1"/>
+    <sheet name="SVB-DIFF" sheetId="21" r:id="rId2"/>
+    <sheet name="Chart6" sheetId="19" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="23" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>SVB</t>
   </si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Rho-Drift</t>
+  </si>
+  <si>
+    <t>Rho-MultiDrift</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -625,7 +628,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="7"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -742,6 +745,254 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-48.8564916854537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-PP-0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-24.8111018555006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24.8741257391031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24.5678564667116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25.7025311856516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.1247907477481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.0832535582538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24.5478795935442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.8106369910503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.0370262825031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-58.8797985062459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-63.8014295868546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-55.8215465462774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-34.3988416541591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-34.257428840531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-33.8973747265058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.4465194409643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-54.9772504220684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-54.5104093706028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-53.8873305202042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-53.9122680223766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-54.5294184078718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-54.1651856997152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-52.9113238072474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-52.861463356426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-54.8884356321224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-52.9705029741122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52.5729276114719</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-53.6480462927223</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57.0619637762432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-53.3349962684474</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-52.6961524013918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-52.3014766726878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-PP-0.99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-24.8111018555006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24.9023529168412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24.6229163288351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25.857185303395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.2770649167038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.2927770628856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24.7507800346056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24.0126943739183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.2638420088398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-63.598044217572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-68.011723305002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-57.0293282895917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-34.1654455476726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-34.143564305202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-33.8473301503819</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-51.1083450891703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-55.9853429488685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-55.5975995264525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-54.9093528424621</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-54.4538798051517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-55.7121742116855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-54.71668670778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-53.7061191671547</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-53.362539579593</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-56.393211492108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-54.1160767185854</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-53.7387027469912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-54.6572211114798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-58.9798650117874</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-54.63825923821</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-53.8531179905047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-53.2756274508694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,11 +1009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2091611192"/>
-        <c:axId val="-2090129720"/>
+        <c:axId val="2139427720"/>
+        <c:axId val="-2114216584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2091611192"/>
+        <c:axId val="2139427720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090129720"/>
+        <c:crossAx val="-2114216584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090129720"/>
+        <c:axId val="-2114216584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,13 +1041,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091611192"/>
+        <c:crossAx val="2139427720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -831,11 +1083,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVI-1.5M-0.1</c:v>
+                  <c:v>Drift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -845,105 +1097,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$33</c:f>
+              <c:f>Sheet1!$AH$2:$AH$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-28.0858329909629</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26.0927190905714</c:v>
+                  <c:v>0.00207313533620024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.7586569013112</c:v>
+                  <c:v>0.00462240773769906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-26.8186508147611</c:v>
+                  <c:v>0.00371906761180085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.1723477512287</c:v>
+                  <c:v>0.0035982441731015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-26.0808514820308</c:v>
+                  <c:v>0.00309968870650223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-25.5205872761558</c:v>
+                  <c:v>0.00419675397479935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24.9562680599806</c:v>
+                  <c:v>0.00369292992300174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-25.1406265126671</c:v>
+                  <c:v>0.00397875954690008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-67.8455593795458</c:v>
+                  <c:v>14.7214242599894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-72.4142495547623</c:v>
+                  <c:v>13.56555560007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-65.18107326223679</c:v>
+                  <c:v>7.066857921809394</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-44.5280792628563</c:v>
+                  <c:v>10.2124177593351</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-44.2394408338169</c:v>
+                  <c:v>10.4649239948696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-43.9289342548294</c:v>
+                  <c:v>10.8502390739575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-59.7684725000361</c:v>
+                  <c:v>5.173340158782999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-64.1537826544608</c:v>
+                  <c:v>6.285778977312503</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-63.9204132708819</c:v>
+                  <c:v>6.177400162035696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-63.4035585841639</c:v>
+                  <c:v>6.2724454727975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-63.3633466747532</c:v>
+                  <c:v>4.438482198548804</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-63.5537641342311</c:v>
+                  <c:v>2.338055912047999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-63.7289349840008</c:v>
+                  <c:v>3.473125405512299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-62.2799381447249</c:v>
+                  <c:v>5.383484962197301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-62.0272207983884</c:v>
+                  <c:v>4.813522912832397</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-63.9030260496007</c:v>
+                  <c:v>6.214885596693101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-61.9277618142558</c:v>
+                  <c:v>4.946408561744895</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-61.3962609315003</c:v>
+                  <c:v>6.306534979714002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-62.4606082069523</c:v>
+                  <c:v>4.8742698866645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-66.53644665178329</c:v>
+                  <c:v>6.8233295542964</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-61.8575979308777</c:v>
+                  <c:v>5.887257887195098</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-61.2866677766687</c:v>
+                  <c:v>5.548174396710699</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-60.8980176138185</c:v>
+                  <c:v>5.320938060046501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,11 +1207,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVI-1.5M-0.01</c:v>
+                  <c:v>MultiDrift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -969,105 +1221,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$33</c:f>
+              <c:f>Sheet1!$AI$2:$AI$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-29.2639277353907</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.2568433176882</c:v>
+                  <c:v>0.749238866726202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26.90271636841</c:v>
+                  <c:v>0.5972414373507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28.0089748065767</c:v>
+                  <c:v>1.165235955307899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-27.3246258770169</c:v>
+                  <c:v>1.035718280115702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27.2516065064143</c:v>
+                  <c:v>1.167792408830302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.6645591748396</c:v>
+                  <c:v>0.983777038667398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-26.0911017230418</c:v>
+                  <c:v>1.039171300144101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26.3159311672327</c:v>
+                  <c:v>1.0433087123285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-71.3445996987571</c:v>
+                  <c:v>15.1513266045837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-75.8197337639083</c:v>
+                  <c:v>13.89623368677699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-65.8655456984208</c:v>
+                  <c:v>7.310675194585897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-44.2135781914769</c:v>
+                  <c:v>9.7544805846438</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-44.0549009824953</c:v>
+                  <c:v>10.2617400587836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-43.8253061700322</c:v>
+                  <c:v>10.604258769803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-60.1797884001584</c:v>
+                  <c:v>5.430303861236503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-64.8832343512375</c:v>
+                  <c:v>6.3762371654079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-64.83133568048849</c:v>
+                  <c:v>6.190899138148801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-64.3785601535938</c:v>
+                  <c:v>6.270790653877405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-63.9824784824186</c:v>
+                  <c:v>4.419452942965101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-64.80981696760411</c:v>
+                  <c:v>3.681465212857098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-64.2741718536592</c:v>
+                  <c:v>2.898781954893899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-63.2621401450869</c:v>
+                  <c:v>4.503312401337702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-62.932992197704</c:v>
+                  <c:v>4.794551543236295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-65.4928413485186</c:v>
+                  <c:v>4.981710578203803</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-63.4974598185219</c:v>
+                  <c:v>4.282387986943895</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-63.116667939495</c:v>
+                  <c:v>5.6812667209944</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-63.9311630283183</c:v>
+                  <c:v>3.9099189075678</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-67.9492439589262</c:v>
+                  <c:v>5.662543777763304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-63.6405579250998</c:v>
+                  <c:v>4.944329318298095</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-63.0908844189267</c:v>
+                  <c:v>4.484339946506999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-62.6081753806564</c:v>
+                  <c:v>4.503638978190203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,11 +1331,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MultiDrift</c:v>
+                  <c:v>SVB-PP-0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1093,105 +1345,229 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$33</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-24.8111018555006</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24.1560369435976</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>-24.0313046169927</c:v>
+                  <c:v>0.0311500712207007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0606895876317992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.7084809564783</c:v>
+                  <c:v>0.171185726134599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.2571840735414</c:v>
+                  <c:v>0.168111605909001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24.1469106635912</c:v>
+                  <c:v>0.2314495141677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.7876025241261</c:v>
+                  <c:v>0.2234999692493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.9928230365542</c:v>
+                  <c:v>0.221357345648002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.2419709660282</c:v>
+                  <c:v>0.248253395853602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-49.1277730689344</c:v>
+                  <c:v>5.399301167272206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-54.7144349507666</c:v>
+                  <c:v>4.809239050688994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-49.8943234700888</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>-24.372548649562</c:v>
+                  <c:v>1.383452118397294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.271812419953299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-23.8577462384372</c:v>
+                  <c:v>-0.137942543310196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-23.2221404113994</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>-45.7632424172515</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>-49.745903508413</c:v>
+                  <c:v>-0.0709755453034049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.747026837523698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1448902517525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-49.5511391946217</c:v>
+                  <c:v>1.231628962167697</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-48.770891092239</c:v>
+                  <c:v>1.154351225912201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-50.1015888321835</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>-52.1954865580742</c:v>
+                  <c:v>0.608773752772002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.347533363059497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-51.8908785109897</c:v>
+                  <c:v>0.624474766168397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-49.289546172624</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>-48.6123127183814</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>-51.6172946162814</c:v>
+                  <c:v>0.881534766714303</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.545400905191698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.710569562362799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-49.9719597110396</c:v>
+                  <c:v>1.283844723871297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-48.1854283698507</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>-50.8546801113738</c:v>
+                  <c:v>1.293767479373201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.116552726219304</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-53.5645393292941</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>-49.8456255697128</c:v>
+                  <c:v>2.1651193308142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.454958619563499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-49.4965596227265</c:v>
+                  <c:v>1.284747167841701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-48.8564916854537</c:v>
+                  <c:v>1.058653990956103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-PP-0.99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$2:$AK$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00292289348260155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00562972550829954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.016531608391201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0158374369533014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0219260095358997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0205995281878977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0192999627799999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.021437669516903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.681055455946101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.598945332541604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.175670375082994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.0384163134667972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0240780079811955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.0209309691795028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0852011893177007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.136797724952402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.144438806318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.132328903654304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0671619699969028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.164777559245799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0729737581036005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0867394068070055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0443246820247012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2057937023772</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.138270979398101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.127992343853897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.107377907461803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24721809527</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.151695649800899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.127781578728801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0845032127745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,11 +1584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1786445976"/>
-        <c:axId val="1786540136"/>
+        <c:axId val="-2134068904"/>
+        <c:axId val="-2134864296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1786445976"/>
+        <c:axId val="-2134068904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786540136"/>
+        <c:crossAx val="-2134864296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1786540136"/>
+        <c:axId val="-2134864296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,13 +1616,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786445976"/>
+        <c:crossAx val="-2134068904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1281,11 +1658,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet2!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Popultaion-10k-0.1</c:v>
+                  <c:v>Lambda-Drift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,105 +1672,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$33</c:f>
+              <c:f>Sheet2!$S$2:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-30.4609294405765</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>-30.5766273936653</c:v>
+                  <c:v>0.999022634806077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-30.4437919453259</c:v>
+                  <c:v>0.999367960484648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.2823003948396</c:v>
+                  <c:v>0.999380549940067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.0001592066314</c:v>
+                  <c:v>0.999596663937339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-30.8813855810131</c:v>
+                  <c:v>0.999660430861969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-30.2111761326408</c:v>
+                  <c:v>0.99971525396356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-29.1007360600013</c:v>
+                  <c:v>0.999749793085023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.7670920541573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-62.0338999235821</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-66.1204030839219</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-62.4147544301619</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-42.7381782002951</c:v>
+                  <c:v>0.999777654617063</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.42633694237653E-6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0.000184289487000816</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.02985191025789E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>5.90395808436525E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-41.3090840755772</c:v>
+                  <c:v>0.998865954332809</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-39.8626862779148</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55.3357759796331</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-58.2721374696439</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-56.9410991856416</c:v>
+                  <c:v>0.99935751676463</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>2.56887351604821E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0.000528136461646907</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>0.000345879976027157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-55.6018990005791</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-56.0900639137545</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55.4948350165368</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-56.9380447484069</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-54.6123071780373</c:v>
+                  <c:v>0.996107352608819</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>0.000137021947988406</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>7.3352722202616E-5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>3.57323056542295E-5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>3.23777007933613E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-54.1553293891536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-55.3918026596233</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-53.5884546990858</c:v>
+                  <c:v>0.99585575803446</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>0.000211048966122936</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>5.01933412154755E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52.0822349243558</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-54.0460964333185</c:v>
+                  <c:v>0.994629489427947</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>0.000229586241873581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-56.7283395998716</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-53.9897323094453</c:v>
+                  <c:v>0.00107083709601256</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>5.03970471215664E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-52.9332105908139</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-52.4826709394116</c:v>
+                  <c:v>0.995996287901454</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>0.000274871595035111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,11 +1779,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet2!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Popultaion-1k-0.1</c:v>
+                  <c:v> [0.95,1]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1419,105 +1793,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$33</c:f>
+              <c:f>Sheet2!$T$2:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-31.6619939579095</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>-31.767024930867</c:v>
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31.6289226693676</c:v>
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-32.469865866102</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-32.1840489598498</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-32.0640954826127</c:v>
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-31.3888988194991</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.2996895680719</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-30.0260959929998</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-62.0819588099253</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66.1817424803144</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-62.4415579455088</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-42.7589643690421</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-41.3413749514211</c:v>
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-39.9185887346222</c:v>
+                  <c:v>0.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-55.4290466809169</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-58.4356735307391</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-57.175243742808</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-55.9019310128753</c:v>
+                  <c:v>0.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-56.4905227508634</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-55.9728178161929</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-57.5296464703566</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-55.2320091492704</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-54.7703296853118</c:v>
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-55.9943673998633</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-54.0531716226574</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52.4815353162121</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-54.3741632585352</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-56.9888807718386</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-54.0605884560915</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-52.9430019403849</c:v>
+                  <c:v>0.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-52.4391726063435</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,11 +1900,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet2!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MultiDrift</c:v>
+                  <c:v>[0,0.05]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,105 +1914,344 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$33</c:f>
+              <c:f>Sheet2!$U$2:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-24.8111018555006</c:v>
-                </c:pt>
+                  <c:v>[0.05,0.5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$V$2:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="1">
-                  <c:v>-24.1560369435976</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>-24.0313046169927</c:v>
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.7084809564783</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.2571840735414</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24.1469106635912</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.7876025241261</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.9928230365542</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.2419709660282</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-49.1277730689344</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-54.7144349507666</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-49.8943234700888</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>-24.372548649562</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-23.8577462384372</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-23.2221404113994</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>-45.7632424172515</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>-49.745903508413</c:v>
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-49.5511391946217</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-48.770891092239</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-50.1015888321835</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>-52.1954865580742</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-51.8908785109897</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-49.289546172624</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>-48.6123127183814</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>-51.6172946162814</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-49.9719597110396</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-48.1854283698507</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>-50.8546801113738</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-53.5645393292941</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>-49.8456255697128</c:v>
+                  <c:v>0.0714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-49.4965596227265</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-48.8564916854537</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> [0.85,0.95]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$W$2:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.357142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,11 +2268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1786408552"/>
-        <c:axId val="1786263400"/>
+        <c:axId val="-2133936920"/>
+        <c:axId val="-2116481192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1786408552"/>
+        <c:axId val="-2133936920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +2281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786263400"/>
+        <c:crossAx val="-2116481192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1679,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1786263400"/>
+        <c:axId val="-2116481192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,13 +2300,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786408552"/>
+        <c:crossAx val="-2133936920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1731,11 +2342,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Drift</c:v>
+                  <c:v>Rho-Drift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1745,105 +2356,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$33</c:f>
+              <c:f>Sheet1!$H$2:$H$33</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>-24.8111018555006</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24.9032026749876</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>-24.6239236466057</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>-25.8699978441744</c:v>
+                  <c:v>0.999022634806077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999367960484648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999380549940067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.289304109484</c:v>
+                  <c:v>0.999596663937339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-25.311603383715</c:v>
+                  <c:v>0.999660430861969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-24.7671828088187</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>-24.0283014067753</c:v>
+                  <c:v>0.99971525396356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999749793085023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-24.2813009188098</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>-49.5576754135287</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>-55.0451130374736</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-50.1381407428653</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-23.9146114748707</c:v>
+                  <c:v>0.999777654617063</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.42633694237653E-6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0.000184289487000816</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.02985191025789E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>5.90395808436525E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-23.6545623023512</c:v>
+                  <c:v>0.998865954332809</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-22.9761601072449</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-46.020206119705</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-49.8363616965084</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-49.5646381707348</c:v>
+                  <c:v>0.99935751676463</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>2.56887351604821E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0.000528136461646907</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>0.000345879976027157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-48.7692362733189</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-50.0825595765998</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>-53.5388958588833</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-51.3165350603713</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-48.4093736117644</c:v>
+                  <c:v>0.996107352608819</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>0.000137021947988406</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>7.3352722202616E-5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>3.57323056542295E-5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>3.23777007933613E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-48.5933413487853</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-50.3841195977921</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-49.3079391362386</c:v>
+                  <c:v>0.99585575803446</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>0.000211048966122936</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>5.01933412154755E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-47.5601601111311</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-49.8903291322771</c:v>
+                  <c:v>0.994629489427947</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>0.000229586241873581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-52.403753552761</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-48.9026970008158</c:v>
+                  <c:v>0.00107083709601256</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>5.03970471215664E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-48.4327251725228</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>-48.0391926035974</c:v>
+                  <c:v>0.995996287901454</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>0.000274871595035111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,11 +2463,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MultiDrift</c:v>
+                  <c:v>Rho-MultiDrift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1869,105 +2477,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$33</c:f>
+              <c:f>Sheet1!$J$2:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-24.8111018555006</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24.1560369435976</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>-24.0313046169927</c:v>
+                  <c:v>0.709501010346893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.842825252851568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.7084809564783</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-24.2571840735414</c:v>
+                  <c:v>0.703286884135002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.768219185907707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24.1469106635912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-23.7876025241261</c:v>
+                  <c:v>0.772173007521473</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0.839727830439458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.9928230365542</c:v>
+                  <c:v>0.643932102832949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.2419709660282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-49.1277730689344</c:v>
+                  <c:v>0.710520973193158</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0.489611867503787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-54.7144349507666</c:v>
+                  <c:v>0.474991714928065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-49.8943234700888</c:v>
+                  <c:v>0.733922776602015</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>-24.372548649562</c:v>
+                  <c:v>0.678978821052851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-23.8577462384372</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-23.2221404113994</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>-45.7632424172515</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>-49.745903508413</c:v>
+                  <c:v>0.817143396039182</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0.903711467086647</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47526779626794</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.478707978139881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-49.5511391946217</c:v>
+                  <c:v>0.667213582795292</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-48.770891092239</c:v>
+                  <c:v>0.881593248085465</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-50.1015888321835</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>-52.1954865580742</c:v>
+                  <c:v>0.400369966123963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.478502951569676</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-51.8908785109897</c:v>
+                  <c:v>0.476113408253902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-49.289546172624</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>-48.6123127183814</c:v>
+                  <c:v>0.729511568947876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.876079904879867</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>-51.6172946162814</c:v>
+                  <c:v>0.388737185550457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-49.9719597110396</c:v>
+                  <c:v>0.612014945128852</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-48.1854283698507</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>-50.8546801113738</c:v>
+                  <c:v>0.606865388653843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.720095482203422</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-53.5645393292941</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>-49.8456255697128</c:v>
+                  <c:v>0.335420011908434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.651262109613659</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-49.4965596227265</c:v>
+                  <c:v>0.869273252967447</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-48.8564916854537</c:v>
+                  <c:v>0.544103007402134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,11 +2589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1784769352"/>
-        <c:axId val="1785298504"/>
+        <c:axId val="-2128863144"/>
+        <c:axId val="-2120951592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784769352"/>
+        <c:axId val="-2128863144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1785298504"/>
+        <c:crossAx val="-2120951592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1785298504"/>
+        <c:axId val="-2120951592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,1279 +2621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1784769352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-12281.4954184728</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-11929.6271131451</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-12191.13029689998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10323.6130478027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-12115.30022740175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-12530.77802084864</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12261.83288358278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-11511.32528727849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-12021.21344078657</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-24618.89517495743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-32864.51027738338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-29231.75431764877</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-15254.78206768999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-16889.1457171243</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-16202.84520779595</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-26159.90214830737</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-26882.50538276021</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-27592.3089747214</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-27245.63246432762</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-26115.57901029618</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-28553.1223549459</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-27120.88193061238</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-25766.77925692765</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4219.142276667797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-26205.33940504665</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-28592.0412368373</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-27525.88119142184</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-16593.6735027393</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-29317.40613799341</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-27997.66694777357</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-25856.85089366284</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-22144.45422541222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>495</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$2:$P$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-13902.48733052664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12498.4124443837</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-12750.53516614904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10700.64167508968</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-12536.55457283855</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-12910.02148360525</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12632.69070169712</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-11954.05240073071</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-12444.61012377022</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-25984.84924236604</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-34686.42553673114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-33307.528437003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-19904.05143049677</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-21898.52321273936</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-21041.95950806328</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-30541.68944751845</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-30729.66189148672</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-31640.60456908654</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-31384.76149916113</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-30351.04305720679</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-32475.9734725921</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-31545.8228170804</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-29832.09037132323</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4900.150443072683</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-29587.10106096512</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-32635.93047611281</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-31373.48933599666</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-18925.56428670655</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-32935.54109263273</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-31609.23254267851</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-29356.31386502431</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-25272.67730973468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVI-1.5M-0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-14485.64422901839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13056.02794917265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13316.84460236295</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-11175.5809478241</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13088.49579509109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13489.54522067508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13198.9567915456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-12497.63772533702</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13026.38592778019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-27324.98168462396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-36317.65247291208</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-33657.29385189303</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-19763.46945159017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-21807.17598633517</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-20992.32165544542</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-30751.87187248094</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-31079.06925424276</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-32091.51116184181</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-31867.38727602893</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-30647.60719307851</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-33117.8164704457</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-31815.7150675613</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-30302.56512949663</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4971.706383618616</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-30323.18554436411</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-33463.16132436104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-32252.61731708195</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-19371.14239758045</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-33634.87575966847</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-32520.325099726</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-30220.53363666589</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-25982.39278297241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Popultaion-10k-0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$2:$R$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15078.16007308537</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-14646.20452156568</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-15069.67701293632</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-12481.637857541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-14849.07625997644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15286.28586260148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-14954.5321856572</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13939.25257274062</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-14239.71056680786</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23758.98367073194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-31671.67307719859</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-31893.93951381273</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-19103.96565553191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-20447.99661741071</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-19094.22672712119</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-28276.58152559251</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-27912.35384795943</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-28185.84409689259</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-27522.94000528665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-26867.1406146884</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-28357.8606934503</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-28184.33215046142</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-26159.29513827987</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4278.271021743134</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-25646.40463140559</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-28241.11562641822</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-26614.02204634581</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-16375.96721929551</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-28080.52810193644</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-27588.75321012655</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-25355.00787299986</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-21780.30843985581</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Popultaion-1k-0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15672.6870091652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15216.40494188529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-15656.31672133696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-12955.4764805747</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15416.15945176805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15871.72726389329</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-15537.50491565205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-14513.55130310644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-14862.9175165349</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23777.3902242014</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-31701.0546480706</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-31907.636110155</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-19113.25707296182</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-20463.98060095344</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-19121.00400388403</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-28324.24285394853</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-27990.68762122403</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-28301.74565268996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-27671.45585137327</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-27058.96039766357</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-28602.10990407457</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-28477.17500282652</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-26456.13238250052</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4326.856045139632</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-25925.39210613671</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-28486.02144514045</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-26818.06454658438</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-16475.37146733616</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-28209.49598206011</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-27624.96070106276</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-25359.69792944437</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-21762.25663163255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1786249112"/>
-        <c:axId val="1786252168"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1786249112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786252168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1786252168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786249112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AH$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Drift</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AH$2:$AH$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00207313533620024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00462240773769906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00371906761180085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0035982441731015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00309968870650223</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00419675397479935</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00369292992300174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00397875954690008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.7214242599894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.56555560007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.066857921809394</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.2124177593351</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.4649239948696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.8502390739575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.173340158782999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.285778977312503</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.177400162035696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.2724454727975</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.438482198548804</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.338055912047999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.473125405512299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.383484962197301</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.813522912832397</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.214885596693101</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.946408561744895</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.306534979714002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8742698866645</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.8233295542964</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.887257887195098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.548174396710699</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.320938060046501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AI$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MultiDrift</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AI$2:$AI$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.749238866726202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5972414373507</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.165235955307899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.035718280115702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.167792408830302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.983777038667398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.039171300144101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0433087123285</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.1513266045837</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.89623368677699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.310675194585897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.7544805846438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.2617400587836</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.604258769803</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.430303861236503</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.3762371654079</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.190899138148801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.270790653877405</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.419452942965101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.681465212857098</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.898781954893899</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.503312401337702</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.794551543236295</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.981710578203803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.282387986943895</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6812667209944</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.9099189075678</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.662543777763304</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.944329318298095</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.484339946506999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.503638978190203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AJ$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVB-PP-0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0311500712207007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0606895876317992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.171185726134599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.168111605909001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2314495141677</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2234999692493</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.221357345648002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.248253395853602</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.399301167272206</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.809239050688994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.383452118397294</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.271812419953299</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.137942543310196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.0709755453034049</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.747026837523698</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1448902517525</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.231628962167697</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.154351225912201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.608773752772002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.347533363059497</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.624474766168397</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.881534766714303</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.545400905191698</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.710569562362799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.283844723871297</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.293767479373201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.116552726219304</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.1651193308142</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.454958619563499</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.284747167841701</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.058653990956103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AK$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVB-PP-0.99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00292289348260155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00562972550829954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.016531608391201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0158374369533014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0219260095358997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0205995281878977</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0192999627799999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.021437669516903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.681055455946101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.598945332541604</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.175670375082994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.0384163134667972</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.0240780079811955</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.0209309691795028</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0852011893177007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.136797724952402</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.144438806318</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.132328903654304</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0671619699969028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.164777559245799</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0729737581036005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0867394068070055</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0443246820247012</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2057937023772</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.138270979398101</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.127992343853897</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.107377907461803</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.24721809527</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.151695649800899</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.127781578728801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0845032127745</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2089269336"/>
-        <c:axId val="1786329736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2089269336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1786329736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1786329736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089269336"/>
+        <c:crossAx val="-2128863144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3305,694 +2638,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lambda-Drift</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$S$2:$S$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="1">
-                  <c:v>0.999022634806077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.999367960484648</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.999380549940067</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.999596663937339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.999660430861969</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99971525396356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.999749793085023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.999777654617063</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.42633694237653E-6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>0.000184289487000816</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.02985191025789E-6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.90395808436525E-12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.998865954332809</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99935751676463</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>2.56887351604821E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>0.000528136461646907</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>0.000345879976027157</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.996107352608819</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>0.000137021947988406</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.3352722202616E-5</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.57323056542295E-5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.23777007933613E-5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99585575803446</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>0.000211048966122936</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>5.01933412154755E-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.994629489427947</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>0.000229586241873581</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.00107083709601256</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.03970471215664E-5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.995996287901454</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>0.000274871595035111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> [0.95,1]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$T$2:$T$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="1">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[0,0.05]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$U$2:$U$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="1">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[0.05,0.5]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$V$2:$V$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="1">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> [0.85,0.95]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$W$2:$W$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="1">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.642857142857143</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.357142857142857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2095073704"/>
-        <c:axId val="-2071937848"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2095073704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071937848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2071937848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095073704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4003,7 +2653,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4014,7 +2664,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4025,40 +2675,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4069,7 +2686,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4096,7 +2713,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9217121" cy="5618788"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4123,7 +2740,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4147,87 +2764,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9217121" cy="5618788"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4578,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU64"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AK33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4603,8 +3139,14 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
       <c r="I1" t="s">
         <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -4692,15 +3234,10 @@
       <c r="G2">
         <v>-24.811101855500599</v>
       </c>
-      <c r="H2">
-        <v>0.49166805522495499</v>
-      </c>
       <c r="I2" s="2">
         <v>-24.811101855500599</v>
       </c>
-      <c r="J2" s="2">
-        <v>0.49166805522495499</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2">
         <v>-24.811101855500599</v>
       </c>
@@ -4736,7 +3273,7 @@
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>243.37568733635271</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
@@ -4744,7 +3281,7 @@
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>243.37568733635271</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>

--- a/extensions/fractionalUpdating-August2016/experiments/Electricity.xlsx
+++ b/extensions/fractionalUpdating-August2016/experiments/Electricity.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="22" r:id="rId1"/>
     <sheet name="SVB-DIFF" sheetId="21" r:id="rId2"/>
     <sheet name="Chart6" sheetId="19" r:id="rId3"/>
-    <sheet name="Chart3" sheetId="23" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Chart8" sheetId="28" r:id="rId4"/>
+    <sheet name="Chart9" sheetId="29" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>SVB</t>
   </si>
@@ -104,12 +105,6 @@
     <t>Lambda-Drift</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.95,1]</t>
-  </si>
-  <si>
-    <t>[0,0.05]</t>
-  </si>
-  <si>
     <t>[0.05,0.5]</t>
   </si>
   <si>
@@ -123,6 +118,39 @@
   </si>
   <si>
     <t>Rho-MultiDrift</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>NSW_Price</t>
+  </si>
+  <si>
+    <t>NSW_Demand</t>
+  </si>
+  <si>
+    <t>VIC_Price</t>
+  </si>
+  <si>
+    <t>VIC_Demand</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.95,1]</t>
+  </si>
+  <si>
+    <t>[0,0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.8,1]</t>
+  </si>
+  <si>
+    <t>[0,0.2]</t>
   </si>
 </sst>
 </file>
@@ -178,7 +206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,14 +290,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +352,12 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +399,12 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1009,11 +1062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139427720"/>
-        <c:axId val="-2114216584"/>
+        <c:axId val="2104896824"/>
+        <c:axId val="2143939240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139427720"/>
+        <c:axId val="2104896824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114216584"/>
+        <c:crossAx val="2143939240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114216584"/>
+        <c:axId val="2143939240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139427720"/>
+        <c:crossAx val="2104896824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,11 +1637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134068904"/>
-        <c:axId val="-2134864296"/>
+        <c:axId val="2144017816"/>
+        <c:axId val="2144020936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134068904"/>
+        <c:axId val="2144017816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134864296"/>
+        <c:crossAx val="2144020936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134864296"/>
+        <c:axId val="2144020936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134068904"/>
+        <c:crossAx val="2144017816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1919,34 +1972,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="1">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.214285714285714</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.214285714285714</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0714285714285714</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.285714285714286</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.214285714285714</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.357142857142857</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.214285714285714</c:v>
@@ -1958,16 +2011,16 @@
                   <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.0714285714285714</c:v>
@@ -1976,7 +2029,7 @@
                   <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5</c:v>
@@ -2000,7 +2053,7 @@
                   <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.285714285714286</c:v>
@@ -2040,34 +2093,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="1">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.142857142857143</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -2079,16 +2132,16 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.0</c:v>
@@ -2097,7 +2150,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.0</c:v>
@@ -2121,7 +2174,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0714285714285715</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0</c:v>
@@ -2268,11 +2321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133936920"/>
-        <c:axId val="-2116481192"/>
+        <c:axId val="2144069112"/>
+        <c:axId val="2144072168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133936920"/>
+        <c:axId val="2144069112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116481192"/>
+        <c:crossAx val="2144072168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116481192"/>
+        <c:axId val="2144072168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,7 +2353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133936920"/>
+        <c:crossAx val="2144069112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2342,6 +2395,448 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet2!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lambda-Drift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AB$2:$AB$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0.999022634806077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999367960484648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999380549940067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999596663937339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999660430861969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99971525396356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999749793085023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999777654617063</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.42633694237653E-6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0.000184289487000816</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.02985191025789E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>5.90395808436525E-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.998865954332809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99935751676463</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>2.56887351604821E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0.000528136461646907</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>0.000345879976027157</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.996107352608819</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>0.000137021947988406</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>7.3352722202616E-5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>3.57323056542295E-5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>3.23777007933613E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99585575803446</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>0.000211048966122936</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>5.01933412154755E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.994629489427947</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>0.000229586241873581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00107083709601256</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>5.03970471215664E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.995996287901454</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>0.000274871595035111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> [0.8,1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AC$2:$AC$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[0,0.2]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AD$2:$AD$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2135166712"/>
+        <c:axId val="-2135163736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2135166712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135163736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2135163736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135166712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2589,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128863144"/>
-        <c:axId val="-2120951592"/>
+        <c:axId val="-2133816168"/>
+        <c:axId val="-2133813224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128863144"/>
+        <c:axId val="-2133816168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +3097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120951592"/>
+        <c:crossAx val="-2133813224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2610,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120951592"/>
+        <c:axId val="-2133813224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +3116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128863144"/>
+        <c:crossAx val="-2133816168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2675,6 +3170,17 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2713,7 +3219,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9217121" cy="5618788"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2764,6 +3270,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3115,7 +3648,7 @@
   <dimension ref="A1:CU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J1" activeCellId="1" sqref="H1:H33 J1:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3140,13 +3673,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -8315,10 +8848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV85"/>
+  <dimension ref="A1:BV87"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W33"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8376,29 +8909,40 @@
         <v>25</v>
       </c>
       <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -8441,46 +8985,46 @@
       <c r="BV1" s="2"/>
     </row>
     <row r="2" spans="1:74">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>0.49166805522495499</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O2" s="2"/>
@@ -8489,13 +9033,6 @@
       <c r="R2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -8538,46 +9075,46 @@
       <c r="BV2" s="2"/>
     </row>
     <row r="3" spans="1:74">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>0.95329354006507105</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0.93211091139152302</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.96504823279024299</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.95251555537984101</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>0.95259169225150198</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.99881274180929802</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.0238284169518399E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>2.4923804122653303E-4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>0.91969106439705905</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>2.4477679625861101E-4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>0.94349908209310696</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>0.90998612424853897</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>0.91127930195092499</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O3" s="2"/>
@@ -8595,12 +9132,12 @@
         <v>0.35714285714285715</v>
       </c>
       <c r="U3">
-        <f>COUNTIF($A3:$N3,"&lt;0.05")/14</f>
-        <v>0.21428571428571427</v>
+        <f>COUNTIF($A3:$N3,"&lt;0.5")/14</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V3">
         <f>COUNTIF($A3:$N3,"&lt;0.5")/14 - U3</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>COUNTIF($A3:$N3,"&gt;0.85")/14 - T3</f>
@@ -8612,13 +9149,29 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AB3">
+        <v>0.999022634806077</v>
+      </c>
+      <c r="AC3">
+        <f>COUNTIF($A3:$N3,"&gt;0.8")/14</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF($A3:$N3,"&lt;0.2")/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE3">
+        <f>COUNTIF($A3:$N3,"&lt;0.5")/14 - AD3</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF3">
+        <f>COUNTIF($A3:$N3,"&gt;0.5")/14 - AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>SUM(AC3:AF3)</f>
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
@@ -8661,46 +9214,46 @@
       <c r="BV3" s="2"/>
     </row>
     <row r="4" spans="1:74">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>0.95503846422646599</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0.96659606834642497</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0.94595196323644803</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.95377014846317199</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>0.95377235965497298</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.999278912529318</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>0.90341228222928205</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>8.7442542325925302E-3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>0.92306597464706397</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>0.93309677184798301</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>0.93312691068169096</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>0.915925970556974</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>0.91610540404460306</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O4" s="2"/>
@@ -8718,12 +9271,12 @@
         <v>0.35714285714285715</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U33" si="2">COUNTIF($A4:$N4,"&lt;0.05")/14</f>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" ref="U4:U33" si="2">COUNTIF($A4:$N4,"&lt;0.5")/14</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V33" si="3">COUNTIF($A4:$N4,"&lt;0.5")/14 - U4</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4:W33" si="4">COUNTIF($A4:$N4,"&gt;0.85")/14 - T4</f>
@@ -8735,13 +9288,29 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AB4">
+        <v>0.99936796048464804</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC33" si="6">COUNTIF($A4:$N4,"&gt;0.8")/14</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD33" si="7">COUNTIF($A4:$N4,"&lt;0.2")/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE33" si="8">COUNTIF($A4:$N4,"&lt;0.5")/14 - AD4</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF33" si="9">COUNTIF($A4:$N4,"&gt;0.5")/14 - AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH33" si="10">SUM(AC4:AF4)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -8784,46 +9353,46 @@
       <c r="BV4" s="2"/>
     </row>
     <row r="5" spans="1:74">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>0.95556553987364001</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>7.6465430742344101E-4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>2.7521582245737899E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0.954349091673239</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.954334898159795</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.99945496082656704</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>0.91730915840477001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>0.88876796859160101</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>0.92410377732168603</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>0.92009422654516504</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>1.5838061279813201E-3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>0.91762529895933798</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>0.91764278364928897</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O5" s="2"/>
@@ -8842,11 +9411,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V5">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
@@ -8858,13 +9427,29 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AB5">
+        <v>0.99938054994006698</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -8907,46 +9492,46 @@
       <c r="BV5" s="2"/>
     </row>
     <row r="6" spans="1:74">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>0.95585919142850895</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>3.0579962968957102E-3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.94599294088795904</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0.954739089604276</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>0.95474233834508604</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>0.99956660256113505</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>0.915437728375604</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>0.82478309332038902</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>0.92463816546442301</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>0.94115908053550201</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>6.4010893550040596E-3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>0.91852761643233904</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>0.91849561487582398</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O6" s="2"/>
@@ -8965,11 +9550,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
@@ -8981,13 +9566,29 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AB6">
+        <v>0.99959666393733904</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
@@ -9030,46 +9631,46 @@
       <c r="BV6" s="2"/>
     </row>
     <row r="7" spans="1:74">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>0.95611961164973103</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.96300129133580403</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6.3535188121634804E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.95511175211576504</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.95510980484094998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.99964403346063802</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>0.91060399818623805</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>0.86025820820622201</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>0.92483220436620095</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>0.942116256287723</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>7.0040034018563997E-3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>0.91935670039862905</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>0.91924266701375301</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O7" s="2"/>
@@ -9088,11 +9689,11 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="V7">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" si="4"/>
@@ -9104,13 +9705,29 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AB7">
+        <v>0.99966043086196898</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
@@ -9153,46 +9770,46 @@
       <c r="BV7" s="2"/>
     </row>
     <row r="8" spans="1:74">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>0.95656353100811398</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>0.90913805310332596</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>0.94940409675123805</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.955411927793829</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>0.95540557851948904</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0.99969802848703104</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>0.88112925927345198</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>5.7653167295265897E-3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>0.92547094489949899</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>0.94433572446050895</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>0.94343367320201399</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>0.91933976646723203</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>0.91942567023220401</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O8" s="2"/>
@@ -9211,11 +9828,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
@@ -9223,17 +9840,33 @@
       </c>
       <c r="Y8">
         <f t="shared" si="5"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="3"/>
+      <c r="AB8">
+        <v>0.99971525396355998</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="10"/>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -9276,46 +9909,46 @@
       <c r="BV8" s="3"/>
     </row>
     <row r="9" spans="1:74">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>0.95683526106901995</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>2.32020393533237E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>1.71831828292216E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>0.95568987607121203</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>0.95566229872782904</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>0.99973670078765298</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>2.2916461055786401E-3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>3.70493624008443E-3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>0.92347554167315604</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>0.94417796941846499</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>0.93680025889919605</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>0.92054950505731103</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>0.92041886816856699</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O9" s="2"/>
@@ -9334,11 +9967,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="V9">
         <f t="shared" si="3"/>
-        <v>7.1428571428571452E-2</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" si="4"/>
@@ -9350,13 +9983,29 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="2"/>
+      <c r="AB9">
+        <v>0.99974979308502299</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571452E-2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
@@ -9399,46 +10048,46 @@
       <c r="BV9" s="3"/>
     </row>
     <row r="10" spans="1:74">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>0.95706723570766905</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1.2921378839801399E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>1.29529174126847E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>0.95587515899914299</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>0.95585441142618899</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.99976716592284798</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>0.90547699542775795</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>3.11651528972444E-3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>0.92419933259401499</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>0.94401532054529802</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>0.94204333284912101</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>0.92118859336429104</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>0.92114721110071096</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O10" s="2"/>
@@ -9457,11 +10106,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V10">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
@@ -9473,13 +10122,29 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AB10">
+        <v>0.99977765461706303</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
@@ -9522,46 +10187,46 @@
       <c r="BV10" s="2"/>
     </row>
     <row r="11" spans="1:74">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>0.95711097230802999</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.5167291803089599E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>0.95055738328553296</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>2.6449473786832799E-5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>2.18745687464455E-6</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>1.20575496704056E-5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>0.70661042983675704</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>0.89662733840294895</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>0.92086350666382</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>0.94444328873935401</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0.947467931407175</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>1.2319017254078E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>2.5340798269731402E-2</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>0.49166805522495499</v>
       </c>
       <c r="O11" s="2"/>
@@ -9580,11 +10245,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="V11">
         <f t="shared" si="3"/>
-        <v>7.1428571428571452E-2</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <f t="shared" si="4"/>
@@ -9596,13 +10261,29 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="2"/>
+      <c r="AB11" s="1">
+        <v>1.42633694237653E-6</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571452E-2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571452E-2</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
@@ -9645,46 +10326,46 @@
       <c r="BV11" s="3"/>
     </row>
     <row r="12" spans="1:74">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>0.95730558296558299</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1.8367839520859401E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>0.94416106382706499</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>4.6943618793587199E-4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>5.3743891482854002E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>1.4348277945709E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>0.91228930756828996</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>9.9133472038531303E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>0.92749739713038304</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>2.9533661224763903E-4</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>0.93206401403874395</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>0.91543673647870605</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>3.4715076213434602E-3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>0.88783120114343395</v>
       </c>
       <c r="O12" s="2"/>
@@ -9703,11 +10384,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>0.35714285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="V12">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
@@ -9719,13 +10400,29 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="2"/>
+      <c r="AB12" s="1">
+        <v>1.84289487000816E-4</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
@@ -9768,46 +10465,46 @@
       <c r="BV12" s="2"/>
     </row>
     <row r="13" spans="1:74">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>0.95746555686550405</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>1.09412161519591E-4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>0.96360738092891995</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>1.3552715728312601E-6</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>0.95398823182155401</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>6.2520239873756697E-3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>0.88316918092200203</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>0.89655900854049797</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>0.92701351303301904</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>0.93868589710897499</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>0.93625899776530797</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>0.94951569235739397</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>0.92501052307249998</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>0.93728209859206801</v>
       </c>
       <c r="O13" s="2"/>
@@ -9842,13 +10539,29 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AB13" s="1">
+        <v>1.0298519102578899E-6</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -9891,46 +10604,46 @@
       <c r="BV13" s="2"/>
     </row>
     <row r="14" spans="1:74">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>0.95756282679045401</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>3.0913555914987401E-4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>0.95822801184320106</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>0.96611289996030103</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.96634345990566495</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>1.1645107497906599E-11</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>6.48296163663386E-3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>5.7297106540632496E-3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>0.92806844383197096</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>0.93670959723749103</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>0.945723524057409</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>0.94952498939079799</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <v>0.946143784724919</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <v>0.93876414913620898</v>
       </c>
       <c r="O14" s="3"/>
@@ -9965,13 +10678,29 @@
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="2"/>
+      <c r="AB14" s="1">
+        <v>5.90395808436525E-12</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -10014,46 +10743,46 @@
       <c r="BV14" s="2"/>
     </row>
     <row r="15" spans="1:74">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>0.957679865753576</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>1.8484939766178199E-3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>0.96689698177633598</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>0.96665863577810596</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>0.96666712974578695</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>0.998734769364236</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>0.910699066949755</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>2.17988476340065E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>0.92799278488213799</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>0.94049641726152999</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>0.94606685108000999</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <v>0.94946097441941901</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>0.94636154461090505</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="4">
         <v>0.93864518131612495</v>
       </c>
       <c r="O15" s="3"/>
@@ -10088,13 +10817,29 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AB15">
+        <v>0.998865954332809</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -10137,46 +10882,46 @@
       <c r="BV15" s="2"/>
     </row>
     <row r="16" spans="1:74">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>0.95776230220321101</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>0.95311326364222904</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>0.96546479628783399</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0.96699814475812595</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>0.96691122324946399</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>0.99925298569176002</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>0.29332623338077601</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>0.89737482313392902</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>0.92830204977528197</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>0.94219212860115598</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>0.94663975629628105</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <v>0.94939754113859198</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>0.94669978123736398</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="4">
         <v>0.93852550981704397</v>
       </c>
       <c r="O16" s="2"/>
@@ -10195,11 +10940,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <f t="shared" si="4"/>
@@ -10211,13 +10956,29 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AB16">
+        <v>0.99935751676463003</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -10260,46 +11021,46 @@
       <c r="BV16" s="2"/>
     </row>
     <row r="17" spans="1:74">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>0.95782163219143601</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>4.6370531561356204E-3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>0.955805237634894</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>4.1515408574247198E-4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>1.9202178657216999E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>3.8723681852945601E-5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>1.01275444317211E-2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>1.0310294327534201E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>0.92682798429586499</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>2.70656466070367E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>0.94845026836490298</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <v>0.94934388558335603</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>0.947005944299395</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>0.93833864317190296</v>
       </c>
       <c r="O17" s="2"/>
@@ -10334,13 +11095,29 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="2"/>
+      <c r="AB17" s="1">
+        <v>2.5688735160482101E-5</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -10383,46 +11160,46 @@
       <c r="BV17" s="3"/>
     </row>
     <row r="18" spans="1:74">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>0.95792389626199104</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>7.8964442629455203E-3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>4.5307164900143098E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>7.7428172921483098E-3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>0.93896706267624497</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>2.3608137936515498E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>0.90023130836772303</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>7.0144343389793098E-3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>0.92806432499144798</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>4.4186813242148796E-3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <v>9.1949141503385901E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <v>0.94928551798007799</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>0.94731265704173995</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="4">
         <v>0.93704419833191399</v>
       </c>
       <c r="O18" s="2"/>
@@ -10441,11 +11218,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
         <f t="shared" si="3"/>
-        <v>7.1428571428571452E-2</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <f t="shared" si="4"/>
@@ -10457,13 +11234,29 @@
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="3"/>
+      <c r="AB18" s="1">
+        <v>5.2813646164690702E-4</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -10506,46 +11299,46 @@
       <c r="BV18" s="2"/>
     </row>
     <row r="19" spans="1:74">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>0.95795979369200301</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>2.1263066665742798E-3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>0.96398175075723902</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>2.42137794832992E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>1.2680292574622399E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>0.94878119330111299</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>0.88863374649308102</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>0.77672636668761097</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>0.92625944625436796</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>0.93630723089492296</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>9.2092025766930194E-2</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <v>0.94920340947096904</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>0.94394178627534497</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>0.93987543235098503</v>
       </c>
       <c r="O19" s="3"/>
@@ -10564,11 +11357,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V19">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <f t="shared" si="4"/>
@@ -10576,17 +11369,33 @@
       </c>
       <c r="Y19">
         <f t="shared" si="5"/>
-        <v>0.92857142857142849</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
+      <c r="AB19" s="1">
+        <v>3.4587997602715699E-4</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="3"/>
@@ -10629,46 +11438,46 @@
       <c r="BV19" s="3"/>
     </row>
     <row r="20" spans="1:74">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>0.95807853098912699</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>0.95480677239557499</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>0.95724258836138498</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>0.96165891222268296</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>0.96259846628732004</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0.96315711349341104</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>0.90974752665075298</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>2.5391154203634501E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>0.92487056059061201</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>0.94073895403364305</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>0.94785715174222995</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <v>0.94912557919975404</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>0.94731405656440604</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="4">
         <v>0.93971810646198095</v>
       </c>
       <c r="O20" s="2"/>
@@ -10703,13 +11512,29 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="2"/>
+      <c r="AB20">
+        <v>0.996107352608819</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="3"/>
@@ -10752,46 +11577,46 @@
       <c r="BV20" s="2"/>
     </row>
     <row r="21" spans="1:74">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>0.95807793234884997</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>9.8182498399307307E-4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>1.3591873541772899E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>1.1136520455556E-3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>2.7641624974332202E-3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>1.1034641152014E-3</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>0.88105692730239005</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>4.90705898874658E-3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>3.5531838553536301E-3</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>2.0794190349244799E-3</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <v>0.91695356937075201</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>0.94910864154400998</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="4">
         <v>0.94475289570966203</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="4">
         <v>0.93736760658443596</v>
       </c>
       <c r="O21" s="3"/>
@@ -10826,13 +11651,29 @@
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="2"/>
+      <c r="AB21" s="1">
+        <v>1.3702194798840601E-4</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="2"/>
@@ -10875,46 +11716,46 @@
       <c r="BV21" s="2"/>
     </row>
     <row r="22" spans="1:74">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>0.958074814569851</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>2.6347798185670399E-4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>0.92089934571886101</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2.5207091258927001E-4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>3.1750273952816703E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>8.6519464234484703E-4</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>5.63771822679048E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>1.8389178291099501E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>0.92304397437273</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>0.94019279429095504</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>1.1420793224715399E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <v>0.94903827472361701</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>0.94765910559645194</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <v>0.94081484142966898</v>
       </c>
       <c r="O22" s="3"/>
@@ -10933,11 +11774,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="V22">
         <f t="shared" si="3"/>
-        <v>7.1428571428571452E-2</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <f t="shared" si="4"/>
@@ -10949,13 +11790,29 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AB22" s="1">
+        <v>7.3352722202615905E-5</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="2"/>
@@ -10998,46 +11855,46 @@
       <c r="BV22" s="3"/>
     </row>
     <row r="23" spans="1:74">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>0.95820414820017097</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>9.9398407608481407E-4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>0.95792598956290897</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>4.6440967330789202E-4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>1.13374848678923E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>9.3489204094658704E-4</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>4.12579678078816E-3</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>2.3581630109953998E-3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>1.2400124044517701E-2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>0.93899469440253103</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>0.94748423358401601</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <v>0.94904336404473999</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>0.94697412378022705</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4">
         <v>0.93434630748550496</v>
       </c>
       <c r="O23" s="3"/>
@@ -11072,13 +11929,29 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AB23" s="1">
+        <v>3.5732305654229502E-5</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -11121,46 +11994,46 @@
       <c r="BV23" s="3"/>
     </row>
     <row r="24" spans="1:74">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>0.95825168887772005</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>5.8201827234443696E-3</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>0.96362525918852304</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>3.9231344637326399E-5</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>0.94788985895586697</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>2.7575953679600199E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>0.90354118897265201</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>0.85342627866544296</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>0.869690641633176</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <v>0.94088965996193397</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <v>0.91889212218167204</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <v>0.94906927690557596</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <v>0.94581749048151598</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="4">
         <v>0.92863313169850203</v>
       </c>
       <c r="O24" s="3"/>
@@ -11195,13 +12068,29 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
+      <c r="AB24" s="1">
+        <v>3.2377700793361301E-5</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -11244,46 +12133,46 @@
       <c r="BV24" s="3"/>
     </row>
     <row r="25" spans="1:74">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>0.95823190068133302</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>0.95676142769817296</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>0.967650840007934</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>0.95426545895215698</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>0.96567379272380605</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>1.2831288811377701E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>0.90483998756824602</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>0.89187405014734</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>0.92359270963883999</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>0.94394166667034896</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <v>0.94739320966959195</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <v>0.94903312819913699</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <v>0.947939757444763</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="4">
         <v>0.94108945010509704</v>
       </c>
       <c r="O25" s="2"/>
@@ -11318,13 +12207,29 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
+      <c r="AB25">
+        <v>0.99585575803446003</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="2"/>
@@ -11367,46 +12272,46 @@
       <c r="BV25" s="2"/>
     </row>
     <row r="26" spans="1:74">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>0.95827608428587396</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>1.8095249111934901E-3</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>4.2613436885802899E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>1.8661927207697299E-3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>0.95557867903232596</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>2.58850428499842E-3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>4.1416353584666499E-3</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>1.8042327769901101E-3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="4">
         <v>7.1954742882975398E-3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>0.66761553710436095</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>1.20773463762752E-3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <v>0.94713749742081799</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="4">
         <v>0.94833473189585005</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="4">
         <v>0.94050342530025099</v>
       </c>
       <c r="O26" s="2"/>
@@ -11442,13 +12347,30 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="3"/>
+      <c r="AB26" s="1">
+        <v>2.11048966122936E-4</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="6"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="3"/>
+      <c r="AH26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
@@ -11491,46 +12413,46 @@
       <c r="BV26" s="2"/>
     </row>
     <row r="27" spans="1:74">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>0.958342521229961</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>1.0734139965914E-4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>0.96190221024810396</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>4.1785821815469798E-4</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>0.96314352586546204</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>1.26977829571984E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>2.5445747465670701E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>1.2104402963887101E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>0.92269088607670602</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>0.94510457270737502</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="4">
         <v>0.92725113045651897</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <v>0.94896031266074299</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <v>0.94852792973026101</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="4">
         <v>0.94151300982422703</v>
       </c>
       <c r="O27" s="3"/>
@@ -11566,13 +12488,30 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="3"/>
+      <c r="AB27" s="1">
+        <v>5.0193341215475497E-5</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3"/>
+      <c r="AH27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="2"/>
@@ -11615,46 +12554,46 @@
       <c r="BV27" s="2"/>
     </row>
     <row r="28" spans="1:74">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>0.95838740573698999</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0.87131715600245996</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>1.04479162765676E-2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>1.3857250970601E-2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>0.957084157799868</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>0.93809240792570703</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <v>8.3374704528699096E-3</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>1.7590965631203302E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <v>1.4060194333804701E-2</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <v>0.94520176260594202</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="4">
         <v>0.92364551234082404</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="4">
         <v>0.948901324007562</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="4">
         <v>0.94767662238107298</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="4">
         <v>0.94151529468832496</v>
       </c>
       <c r="O28" s="3"/>
@@ -11690,13 +12629,30 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
+      <c r="AB28">
+        <v>0.99462948942794704</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3"/>
+      <c r="AH28">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="2"/>
@@ -11739,46 +12695,46 @@
       <c r="BV28" s="3"/>
     </row>
     <row r="29" spans="1:74">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>0.95839045605643802</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>5.2624629909592095E-4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>0.95884212111426903</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>1.3417980961003E-3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>0.96575196728414603</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0.94934082820711996</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>0.89523362835999498</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <v>0.69974340035579496</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>0.90225602814436301</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>2.54916443233478E-3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="4">
         <v>0.91304287346475099</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <v>0.94884669450219095</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="4">
         <v>0.94408855685431603</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="4">
         <v>0.94138298767699302</v>
       </c>
       <c r="O29" s="3"/>
@@ -11814,13 +12770,30 @@
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
+      <c r="AB29" s="1">
+        <v>2.29586241873581E-4</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
       <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
+      <c r="AH29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
@@ -11863,46 +12836,46 @@
       <c r="BV29" s="3"/>
     </row>
     <row r="30" spans="1:74">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>0.95842027704801003</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>8.3903488393628697E-3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>2.4352660670437501E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>2.0202132071369199E-3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>1.24470771691143E-3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>3.57148664376091E-3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>2.1818767697926299E-2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>7.9795906275276995E-2</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
         <v>9.1553352687577597E-3</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>0.77550001208084596</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="4">
         <v>1.7350956691526301E-3</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="4">
         <v>0.94898538491622297</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>0.94864038806709405</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="4">
         <v>0.93416697722057496</v>
       </c>
       <c r="O30" s="3"/>
@@ -11921,11 +12894,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="V30">
         <f t="shared" si="3"/>
-        <v>7.1428571428571508E-2</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <f t="shared" si="4"/>
@@ -11938,13 +12911,30 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="2"/>
+      <c r="AB30">
+        <v>1.0708370960125599E-3</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571452E-2</v>
+      </c>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
+      <c r="AH30">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
@@ -11987,46 +12977,46 @@
       <c r="BV30" s="2"/>
     </row>
     <row r="31" spans="1:74">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>0.95841619005118495</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>2.7911493760822301E-4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>0.95099567842606303</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>6.7943197070221805E-5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>0.93196803268070405</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>1.38339606091154E-2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>0.80253678425823904</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>0.75940847367985798</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <v>0.91565075953367403</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>7.6504011516605696E-4</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="4">
         <v>0.94534889854433402</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>0.94897241905004204</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="4">
         <v>0.94740490009248102</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="4">
         <v>0.94202133941569099</v>
       </c>
       <c r="O31" s="3"/>
@@ -12062,13 +13052,30 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
+      <c r="AB31" s="1">
+        <v>5.03970471215664E-5</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
@@ -12111,46 +13118,46 @@
       <c r="BV31" s="3"/>
     </row>
     <row r="32" spans="1:74">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>0.95840424095988797</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>0.96300148718205103</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>0.95889512965502899</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>0.963424646190847</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>0.95428377242748497</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0.96121976427986999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>0.89201277708095705</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>8.9808838501649092E-3</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <v>0.80406653240141202</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>0.92044557260709403</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <v>0.94855382330066196</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="4">
         <v>0.94888274197858402</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="4">
         <v>0.94859477083903698</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="4">
         <v>0.93905939879117595</v>
       </c>
       <c r="O32" s="3"/>
@@ -12186,13 +13193,30 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="2"/>
+      <c r="AB32">
+        <v>0.995996287901454</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
@@ -12235,46 +13259,46 @@
       <c r="BV32" s="2"/>
     </row>
     <row r="33" spans="1:74">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>0.95851037506637704</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>3.6055129117176701E-3</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>7.5107302303810397E-4</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>0.95541269653540195</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>1.84523700162802E-3</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>0.96020232778356496</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>3.9125637123777098E-3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>4.7426534816715996E-3</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>7.6758621204642396E-3</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>0.94152172649278398</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="4">
         <v>0.94592706143051497</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="4">
         <v>0.94882138411320205</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="4">
         <v>0.94913586067743705</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="4">
         <v>0.93537776927970595</v>
       </c>
       <c r="O33" s="2"/>
@@ -12310,13 +13334,30 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="AB33" s="1">
+        <v>2.7487159503511102E-4</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -12988,13 +14029,27 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="3"/>
+      <c r="I43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="X43" s="2"/>
@@ -13056,15 +14111,18 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="2"/>
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Z44" s="3"/>
@@ -13125,15 +14183,31 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="H45" s="2">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.91969106439705905</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2.4477679625861101E-4</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.94349908209310696</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.90998612424853897</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.91127930195092499</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4">
+        <v>0.999022634806077</v>
+      </c>
+      <c r="P45" s="2">
+        <v>2</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="X45" s="2"/>
       <c r="Z45" s="2"/>
@@ -13194,15 +14268,31 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="3"/>
+      <c r="H46" s="2">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.92306597464706397</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.93309677184798301</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.93312691068169096</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.915925970556974</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.91610540404460306</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4">
+        <v>0.99936796048464804</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Z46" s="3"/>
@@ -13263,15 +14353,31 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="H47" s="2">
+        <v>8</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.92410377732168603</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.92009422654516504</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.5838061279813201E-3</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.91762529895933798</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.91764278364928897</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4">
+        <v>0.99938054994006698</v>
+      </c>
+      <c r="P47" s="2">
+        <v>4</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Z47" s="2"/>
@@ -13332,15 +14438,31 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="H48" s="2">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.92463816546442301</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.94115908053550201</v>
+      </c>
+      <c r="K48" s="4">
+        <v>6.4010893550040596E-3</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.91852761643233904</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.91849561487582398</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4">
+        <v>0.99959666393733904</v>
+      </c>
+      <c r="P48" s="2">
+        <v>5</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="X48" s="3"/>
       <c r="Z48" s="2"/>
@@ -13401,15 +14523,31 @@
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="H49" s="2">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.92483220436620095</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.942116256287723</v>
+      </c>
+      <c r="K49" s="4">
+        <v>7.0040034018563997E-3</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.91935670039862905</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0.91924266701375301</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4">
+        <v>0.99966043086196898</v>
+      </c>
+      <c r="P49" s="2">
+        <v>6</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Z49" s="2"/>
@@ -13470,15 +14608,31 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="2"/>
+      <c r="H50" s="2">
+        <v>11</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.92547094489949899</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.94433572446050895</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.94343367320201399</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0.91933976646723203</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0.91942567023220401</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4">
+        <v>0.99971525396355998</v>
+      </c>
+      <c r="P50" s="2">
+        <v>7</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Z50" s="3"/>
@@ -13539,15 +14693,31 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="2"/>
+      <c r="H51" s="2">
+        <v>12</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.92347554167315604</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.94417796941846499</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.93680025889919605</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.92054950505731103</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0.92041886816856699</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4">
+        <v>0.99974979308502299</v>
+      </c>
+      <c r="P51" s="2">
+        <v>8</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Z51" s="2"/>
@@ -13608,15 +14778,31 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="2"/>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.92419933259401499</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.94401532054529802</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.94204333284912101</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.92118859336429104</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.92114721110071096</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4">
+        <v>0.99977765461706303</v>
+      </c>
+      <c r="P52" s="2">
+        <v>9</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Z52" s="3"/>
@@ -13677,15 +14863,31 @@
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="2"/>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.92086350666382</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.94444328873935401</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.947467931407175</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1.2319017254078E-2</v>
+      </c>
+      <c r="M53" s="4">
+        <v>2.5340798269731402E-2</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4">
+        <v>1.42633694237653E-6</v>
+      </c>
+      <c r="P53" s="2">
+        <v>10</v>
+      </c>
       <c r="Q53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
@@ -13746,15 +14948,33 @@
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="2"/>
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.92749739713038304</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2.9533661224763903E-4</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.93206401403874395</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.91543673647870605</v>
+      </c>
+      <c r="M54" s="4">
+        <v>3.4715076213434602E-3</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0.88783120114343395</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1.84289487000816E-4</v>
+      </c>
+      <c r="P54" s="2">
+        <v>11</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="X54" s="3"/>
       <c r="Z54" s="2"/>
@@ -13815,15 +15035,33 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="H55" s="2">
+        <v>4</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.92701351303301904</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0.93868589710897499</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.93625899776530797</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.94951569235739397</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.92501052307249998</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0.93728209859206801</v>
+      </c>
+      <c r="O55" s="4">
+        <v>1.0298519102578899E-6</v>
+      </c>
+      <c r="P55" s="2">
+        <v>12</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Z55" s="2"/>
@@ -13883,16 +15121,36 @@
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="3"/>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.92806844383197096</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.93670959723749103</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.945723524057409</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.94952498939079799</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.946143784724919</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0.93876414913620898</v>
+      </c>
+      <c r="O56" s="4">
+        <v>5.90395808436525E-12</v>
+      </c>
+      <c r="P56" s="2">
+        <v>13</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="X56" s="3"/>
       <c r="Z56" s="3"/>
@@ -13953,15 +15211,33 @@
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="H57" s="2">
+        <v>6</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.92799278488213799</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.94049641726152999</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.94606685108000999</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.94946097441941901</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0.94636154461090505</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0.93864518131612495</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0.998865954332809</v>
+      </c>
+      <c r="P57" s="2">
+        <v>14</v>
+      </c>
       <c r="Q57" s="2"/>
       <c r="X57" s="3"/>
       <c r="Z57" s="2"/>
@@ -14022,15 +15298,33 @@
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="2"/>
+      <c r="H58" s="2">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.92830204977528197</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.94219212860115598</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.94663975629628105</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.94939754113859198</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.94669978123736398</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0.93852550981704397</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.99935751676463003</v>
+      </c>
+      <c r="P58" s="2">
+        <v>15</v>
+      </c>
       <c r="Q58" s="2"/>
       <c r="X58" s="3"/>
       <c r="Z58" s="2"/>
@@ -14091,15 +15385,33 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="2"/>
+      <c r="H59" s="2">
+        <v>8</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.92682798429586499</v>
+      </c>
+      <c r="J59" s="4">
+        <v>2.70656466070367E-3</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.94845026836490298</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.94934388558335603</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.947005944299395</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0.93833864317190296</v>
+      </c>
+      <c r="O59" s="4">
+        <v>2.5688735160482101E-5</v>
+      </c>
+      <c r="P59" s="2">
+        <v>16</v>
+      </c>
       <c r="Q59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Z59" s="3"/>
@@ -14160,15 +15472,33 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="H60" s="2">
+        <v>9</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.92806432499144798</v>
+      </c>
+      <c r="J60" s="4">
+        <v>4.4186813242148796E-3</v>
+      </c>
+      <c r="K60" s="4">
+        <v>9.1949141503385901E-2</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.94928551798007799</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.94731265704173995</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0.93704419833191399</v>
+      </c>
+      <c r="O60" s="4">
+        <v>5.2813646164690702E-4</v>
+      </c>
+      <c r="P60" s="2">
+        <v>17</v>
+      </c>
       <c r="Q60" s="2"/>
       <c r="X60" s="3"/>
       <c r="Z60" s="2"/>
@@ -14229,15 +15559,33 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="2"/>
+      <c r="H61" s="2">
+        <v>10</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.92625944625436796</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.93630723089492296</v>
+      </c>
+      <c r="K61" s="4">
+        <v>9.2092025766930194E-2</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.94920340947096904</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0.94394178627534497</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0.93987543235098503</v>
+      </c>
+      <c r="O61" s="4">
+        <v>3.4587997602715699E-4</v>
+      </c>
+      <c r="P61" s="2">
+        <v>18</v>
+      </c>
       <c r="Q61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Z61" s="2"/>
@@ -14298,15 +15646,33 @@
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="2"/>
+      <c r="H62" s="2">
+        <v>11</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.92487056059061201</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.94073895403364305</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.94785715174222995</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.94912557919975404</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0.94731405656440604</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0.93971810646198095</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0.996107352608819</v>
+      </c>
+      <c r="P62" s="2">
+        <v>19</v>
+      </c>
       <c r="Q62" s="2"/>
       <c r="X62" s="3"/>
       <c r="Z62" s="2"/>
@@ -14367,15 +15733,33 @@
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="2"/>
+      <c r="H63" s="2">
+        <v>12</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3.5531838553536301E-3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2.0794190349244799E-3</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.91695356937075201</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.94910864154400998</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.94475289570966203</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0.93736760658443596</v>
+      </c>
+      <c r="O63" s="4">
+        <v>1.3702194798840601E-4</v>
+      </c>
+      <c r="P63" s="2">
+        <v>20</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="X63" s="3"/>
       <c r="Z63" s="2"/>
@@ -14436,15 +15820,33 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="2"/>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.92304397437273</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.94019279429095504</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.1420793224715399E-2</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0.94903827472361701</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.94765910559645194</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0.94081484142966898</v>
+      </c>
+      <c r="O64" s="4">
+        <v>7.3352722202615905E-5</v>
+      </c>
+      <c r="P64" s="2">
+        <v>21</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Z64" s="2"/>
@@ -14505,15 +15907,33 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1.2400124044517701E-2</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.93899469440253103</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.94748423358401601</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0.94904336404473999</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0.94697412378022705</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0.93434630748550496</v>
+      </c>
+      <c r="O65" s="4">
+        <v>3.5732305654229502E-5</v>
+      </c>
+      <c r="P65" s="2">
+        <v>22</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -14573,35 +15993,308 @@
       <c r="BU65" s="2"/>
       <c r="BV65" s="2"/>
     </row>
+    <row r="66" spans="1:74">
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.869690641633176</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0.94088965996193397</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.91889212218167204</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0.94906927690557596</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.94581749048151598</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0.92863313169850203</v>
+      </c>
+      <c r="O66" s="4">
+        <v>3.2377700793361301E-5</v>
+      </c>
+      <c r="P66" s="2">
+        <v>23</v>
+      </c>
+    </row>
     <row r="67" spans="1:74">
       <c r="G67" s="1"/>
+      <c r="H67" s="2">
+        <v>4</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.92359270963883999</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0.94394166667034896</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.94739320966959195</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0.94903312819913699</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.947939757444763</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0.94108945010509704</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0.99585575803446003</v>
+      </c>
+      <c r="P67" s="2">
+        <v>24</v>
+      </c>
       <c r="Y67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:74">
       <c r="G68" s="1"/>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="4">
+        <v>7.1954742882975398E-3</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0.66761553710436095</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1.20773463762752E-3</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.94713749742081799</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.94833473189585005</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0.94050342530025099</v>
+      </c>
+      <c r="O68" s="4">
+        <v>2.11048966122936E-4</v>
+      </c>
+      <c r="P68" s="2">
+        <v>25</v>
+      </c>
       <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="1:74">
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0.92269088607670602</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0.94510457270737502</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.92725113045651897</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.94896031266074299</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0.94852792973026101</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0.94151300982422703</v>
+      </c>
+      <c r="O69" s="4">
+        <v>5.0193341215475497E-5</v>
+      </c>
+      <c r="P69" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:74">
       <c r="G70" s="1"/>
+      <c r="H70" s="2">
+        <v>7</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1.4060194333804701E-2</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0.94520176260594202</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.92364551234082404</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.948901324007562</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.94767662238107298</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0.94151529468832496</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0.99462948942794704</v>
+      </c>
+      <c r="P70" s="2">
+        <v>27</v>
+      </c>
       <c r="AB70" s="1"/>
     </row>
     <row r="71" spans="1:74">
       <c r="G71" s="1"/>
+      <c r="H71" s="2">
+        <v>8</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.90225602814436301</v>
+      </c>
+      <c r="J71" s="4">
+        <v>2.54916443233478E-3</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.91304287346475099</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.94884669450219095</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.94408855685431603</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0.94138298767699302</v>
+      </c>
+      <c r="O71" s="4">
+        <v>2.29586241873581E-4</v>
+      </c>
+      <c r="P71" s="2">
+        <v>28</v>
+      </c>
       <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="1:74">
-      <c r="O72" s="1"/>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+      <c r="I72" s="4">
+        <v>9.1553352687577597E-3</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0.77550001208084596</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1.7350956691526301E-3</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.94898538491622297</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.94864038806709405</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0.93416697722057496</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1.0708370960125599E-3</v>
+      </c>
+      <c r="P72" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="1:74">
       <c r="G73" s="1"/>
+      <c r="H73" s="2">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.91565075953367403</v>
+      </c>
+      <c r="J73" s="4">
+        <v>7.6504011516605696E-4</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.94534889854433402</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.94897241905004204</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0.94740490009248102</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0.94202133941569099</v>
+      </c>
+      <c r="O73" s="4">
+        <v>5.03970471215664E-5</v>
+      </c>
+      <c r="P73" s="2">
+        <v>30</v>
+      </c>
       <c r="AB73" s="1"/>
     </row>
     <row r="74" spans="1:74">
       <c r="G74" s="1"/>
+      <c r="H74" s="2">
+        <v>11</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.80406653240141202</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0.92044557260709403</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.94855382330066196</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0.94888274197858402</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0.94859477083903698</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0.93905939879117595</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0.995996287901454</v>
+      </c>
+      <c r="P74" s="2">
+        <v>31</v>
+      </c>
       <c r="AB74" s="1"/>
     </row>
     <row r="75" spans="1:74">
+      <c r="H75" s="2">
+        <v>12</v>
+      </c>
+      <c r="I75" s="4">
+        <v>7.6758621204642396E-3</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0.94152172649278398</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.94592706143051497</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0.94882138411320205</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0.94913586067743705</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0.93537776927970595</v>
+      </c>
+      <c r="O75" s="4">
+        <v>2.7487159503511102E-4</v>
+      </c>
+      <c r="P75" s="2">
+        <v>32</v>
+      </c>
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:74">
@@ -14622,18 +16315,832 @@
     </row>
     <row r="80" spans="1:74">
       <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
+      <c r="J80" s="2">
+        <v>6</v>
+      </c>
+      <c r="K80" s="2">
+        <v>7</v>
+      </c>
+      <c r="L80" s="2">
+        <v>8</v>
+      </c>
+      <c r="M80" s="2">
+        <v>9</v>
+      </c>
+      <c r="N80" s="2">
+        <v>10</v>
+      </c>
+      <c r="O80" s="2">
+        <v>11</v>
+      </c>
+      <c r="P80" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>1</v>
+      </c>
+      <c r="R80" s="2">
+        <v>2</v>
+      </c>
+      <c r="S80" s="2">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2">
+        <v>4</v>
+      </c>
+      <c r="U80" s="2">
+        <v>5</v>
+      </c>
+      <c r="V80" s="2">
+        <v>6</v>
+      </c>
+      <c r="W80" s="2">
+        <v>7</v>
+      </c>
+      <c r="X80" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH80" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ80" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK80" s="2">
+        <v>9</v>
+      </c>
+      <c r="AL80" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="82" spans="7:26">
+    <row r="81" spans="7:40">
+      <c r="H81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
+        <v>0.91969106439705905</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0.92306597464706397</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0.92410377732168603</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0.92463816546442301</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0.92483220436620095</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0.92547094489949899</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0.92347554167315604</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0.92419933259401499</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0.92086350666382</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0.92749739713038304</v>
+      </c>
+      <c r="T81" s="4">
+        <v>0.92701351303301904</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.92806844383197096</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0.92799278488213799</v>
+      </c>
+      <c r="W81" s="4">
+        <v>0.92830204977528197</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0.92682798429586499</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>0.92806432499144798</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>0.92625944625436796</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>0.92487056059061201</v>
+      </c>
+      <c r="AB81" s="4">
+        <v>3.5531838553536301E-3</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>0.92304397437273</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>1.2400124044517701E-2</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>0.869690641633176</v>
+      </c>
+      <c r="AF81" s="4">
+        <v>0.92359270963883999</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>7.1954742882975398E-3</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>0.92269088607670602</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>1.4060194333804701E-2</v>
+      </c>
+      <c r="AJ81" s="4">
+        <v>0.90225602814436301</v>
+      </c>
+      <c r="AK81" s="4">
+        <v>9.1553352687577597E-3</v>
+      </c>
+      <c r="AL81" s="4">
+        <v>0.91565075953367403</v>
+      </c>
+      <c r="AM81" s="4">
+        <v>0.80406653240141202</v>
+      </c>
+      <c r="AN81" s="4">
+        <v>7.6758621204642396E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="7:40">
       <c r="G82" s="1"/>
+      <c r="H82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
+        <v>2.4477679625861101E-4</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.93309677184798301</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.92009422654516504</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0.94115908053550201</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0.942116256287723</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0.94433572446050895</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0.94417796941846499</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0.94401532054529802</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0.94444328873935401</v>
+      </c>
+      <c r="S82" s="4">
+        <v>2.9533661224763903E-4</v>
+      </c>
+      <c r="T82" s="4">
+        <v>0.93868589710897499</v>
+      </c>
+      <c r="U82" s="4">
+        <v>0.93670959723749103</v>
+      </c>
+      <c r="V82" s="4">
+        <v>0.94049641726152999</v>
+      </c>
+      <c r="W82" s="4">
+        <v>0.94219212860115598</v>
+      </c>
+      <c r="X82" s="4">
+        <v>2.70656466070367E-3</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>4.4186813242148796E-3</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>0.93630723089492296</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>0.94073895403364305</v>
+      </c>
+      <c r="AB82" s="4">
+        <v>2.0794190349244799E-3</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>0.94019279429095504</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>0.93899469440253103</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>0.94088965996193397</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>0.94394166667034896</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>0.66761553710436095</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>0.94510457270737502</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>0.94520176260594202</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>2.54916443233478E-3</v>
+      </c>
+      <c r="AK82" s="4">
+        <v>0.77550001208084596</v>
+      </c>
+      <c r="AL82" s="4">
+        <v>7.6504011516605696E-4</v>
+      </c>
+      <c r="AM82" s="4">
+        <v>0.92044557260709403</v>
+      </c>
+      <c r="AN82" s="4">
+        <v>0.94152172649278398</v>
+      </c>
     </row>
-    <row r="83" spans="7:26">
+    <row r="83" spans="7:40">
       <c r="G83" s="1"/>
+      <c r="H83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
+        <v>0.94349908209310696</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0.93312691068169096</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1.5838061279813201E-3</v>
+      </c>
+      <c r="M83" s="4">
+        <v>6.4010893550040596E-3</v>
+      </c>
+      <c r="N83" s="4">
+        <v>7.0040034018563997E-3</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0.94343367320201399</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0.93680025889919605</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0.94204333284912101</v>
+      </c>
+      <c r="R83" s="4">
+        <v>0.947467931407175</v>
+      </c>
+      <c r="S83" s="4">
+        <v>0.93206401403874395</v>
+      </c>
+      <c r="T83" s="4">
+        <v>0.93625899776530797</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.945723524057409</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0.94606685108000999</v>
+      </c>
+      <c r="W83" s="4">
+        <v>0.94663975629628105</v>
+      </c>
+      <c r="X83" s="4">
+        <v>0.94845026836490298</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>9.1949141503385901E-2</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>9.2092025766930194E-2</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>0.94785715174222995</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>0.91695356937075201</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>1.1420793224715399E-2</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>0.94748423358401601</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>0.91889212218167204</v>
+      </c>
+      <c r="AF83" s="4">
+        <v>0.94739320966959195</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>1.20773463762752E-3</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>0.92725113045651897</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>0.92364551234082404</v>
+      </c>
+      <c r="AJ83" s="4">
+        <v>0.91304287346475099</v>
+      </c>
+      <c r="AK83" s="4">
+        <v>1.7350956691526301E-3</v>
+      </c>
+      <c r="AL83" s="4">
+        <v>0.94534889854433402</v>
+      </c>
+      <c r="AM83" s="4">
+        <v>0.94855382330066196</v>
+      </c>
+      <c r="AN83" s="4">
+        <v>0.94592706143051497</v>
+      </c>
     </row>
-    <row r="85" spans="7:26">
+    <row r="84" spans="7:40">
+      <c r="H84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
+        <v>0.90998612424853897</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0.915925970556974</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0.91762529895933798</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0.91852761643233904</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0.91935670039862905</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0.91933976646723203</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0.92054950505731103</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>0.92118859336429104</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1.2319017254078E-2</v>
+      </c>
+      <c r="S84" s="4">
+        <v>0.91543673647870605</v>
+      </c>
+      <c r="T84" s="4">
+        <v>0.94951569235739397</v>
+      </c>
+      <c r="U84" s="4">
+        <v>0.94952498939079799</v>
+      </c>
+      <c r="V84" s="4">
+        <v>0.94946097441941901</v>
+      </c>
+      <c r="W84" s="4">
+        <v>0.94939754113859198</v>
+      </c>
+      <c r="X84" s="4">
+        <v>0.94934388558335603</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>0.94928551798007799</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>0.94920340947096904</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>0.94912557919975404</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>0.94910864154400998</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>0.94903827472361701</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>0.94904336404473999</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>0.94906927690557596</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>0.94903312819913699</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>0.94713749742081799</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>0.94896031266074299</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>0.948901324007562</v>
+      </c>
+      <c r="AJ84" s="4">
+        <v>0.94884669450219095</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>0.94898538491622297</v>
+      </c>
+      <c r="AL84" s="4">
+        <v>0.94897241905004204</v>
+      </c>
+      <c r="AM84" s="4">
+        <v>0.94888274197858402</v>
+      </c>
+      <c r="AN84" s="4">
+        <v>0.94882138411320205</v>
+      </c>
+    </row>
+    <row r="85" spans="7:40">
       <c r="G85" s="1"/>
-      <c r="Z85" s="1"/>
+      <c r="H85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
+        <v>0.91127930195092499</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0.91610540404460306</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.91764278364928897</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0.91849561487582398</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0.91924266701375301</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0.91942567023220401</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0.92041886816856699</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0.92114721110071096</v>
+      </c>
+      <c r="R85" s="4">
+        <v>2.5340798269731402E-2</v>
+      </c>
+      <c r="S85" s="4">
+        <v>3.4715076213434602E-3</v>
+      </c>
+      <c r="T85" s="4">
+        <v>0.92501052307249998</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0.946143784724919</v>
+      </c>
+      <c r="V85" s="4">
+        <v>0.94636154461090505</v>
+      </c>
+      <c r="W85" s="4">
+        <v>0.94669978123736398</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0.947005944299395</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>0.94731265704173995</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>0.94394178627534497</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>0.94731405656440604</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>0.94475289570966203</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>0.94765910559645194</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>0.94697412378022705</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>0.94581749048151598</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>0.947939757444763</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>0.94833473189585005</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>0.94852792973026101</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>0.94767662238107298</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>0.94408855685431603</v>
+      </c>
+      <c r="AK85" s="4">
+        <v>0.94864038806709405</v>
+      </c>
+      <c r="AL85" s="4">
+        <v>0.94740490009248102</v>
+      </c>
+      <c r="AM85" s="4">
+        <v>0.94859477083903698</v>
+      </c>
+      <c r="AN85" s="4">
+        <v>0.94913586067743705</v>
+      </c>
+    </row>
+    <row r="86" spans="7:40">
+      <c r="H86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4">
+        <v>0.88783120114343395</v>
+      </c>
+      <c r="T86" s="4">
+        <v>0.93728209859206801</v>
+      </c>
+      <c r="U86" s="4">
+        <v>0.93876414913620898</v>
+      </c>
+      <c r="V86" s="4">
+        <v>0.93864518131612495</v>
+      </c>
+      <c r="W86" s="4">
+        <v>0.93852550981704397</v>
+      </c>
+      <c r="X86" s="4">
+        <v>0.93833864317190296</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>0.93704419833191399</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>0.93987543235098503</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>0.93971810646198095</v>
+      </c>
+      <c r="AB86" s="4">
+        <v>0.93736760658443596</v>
+      </c>
+      <c r="AC86" s="4">
+        <v>0.94081484142966898</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>0.93434630748550496</v>
+      </c>
+      <c r="AE86" s="4">
+        <v>0.92863313169850203</v>
+      </c>
+      <c r="AF86" s="4">
+        <v>0.94108945010509704</v>
+      </c>
+      <c r="AG86" s="4">
+        <v>0.94050342530025099</v>
+      </c>
+      <c r="AH86" s="4">
+        <v>0.94151300982422703</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>0.94151529468832496</v>
+      </c>
+      <c r="AJ86" s="4">
+        <v>0.94138298767699302</v>
+      </c>
+      <c r="AK86" s="4">
+        <v>0.93416697722057496</v>
+      </c>
+      <c r="AL86" s="4">
+        <v>0.94202133941569099</v>
+      </c>
+      <c r="AM86" s="4">
+        <v>0.93905939879117595</v>
+      </c>
+      <c r="AN86" s="4">
+        <v>0.93537776927970595</v>
+      </c>
+    </row>
+    <row r="87" spans="7:40">
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0.999022634806077</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.99936796048464804</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.99938054994006698</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0.99959666393733904</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0.99966043086196898</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0.99971525396355998</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0.99974979308502299</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0.99977765461706303</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1.42633694237653E-6</v>
+      </c>
+      <c r="S87" s="4">
+        <v>1.84289487000816E-4</v>
+      </c>
+      <c r="T87" s="4">
+        <v>1.0298519102578899E-6</v>
+      </c>
+      <c r="U87" s="4">
+        <v>5.90395808436525E-12</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0.998865954332809</v>
+      </c>
+      <c r="W87" s="4">
+        <v>0.99935751676463003</v>
+      </c>
+      <c r="X87" s="4">
+        <v>2.5688735160482101E-5</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>5.2813646164690702E-4</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>3.4587997602715699E-4</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>0.996107352608819</v>
+      </c>
+      <c r="AB87" s="4">
+        <v>1.3702194798840601E-4</v>
+      </c>
+      <c r="AC87" s="4">
+        <v>7.3352722202615905E-5</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>3.5732305654229502E-5</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>3.2377700793361301E-5</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>0.99585575803446003</v>
+      </c>
+      <c r="AG87" s="4">
+        <v>2.11048966122936E-4</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>5.0193341215475497E-5</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>0.99462948942794704</v>
+      </c>
+      <c r="AJ87" s="4">
+        <v>2.29586241873581E-4</v>
+      </c>
+      <c r="AK87" s="4">
+        <v>1.0708370960125599E-3</v>
+      </c>
+      <c r="AL87" s="4">
+        <v>5.03970471215664E-5</v>
+      </c>
+      <c r="AM87" s="4">
+        <v>0.995996287901454</v>
+      </c>
+      <c r="AN87" s="4">
+        <v>2.7487159503511102E-4</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:N33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:N75">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:O75">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:AN86">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:AN87">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
